--- a/xlsx/杰夫·贝佐斯_intext.xlsx
+++ b/xlsx/杰夫·贝佐斯_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="379">
   <si>
     <t>杰夫·贝佐斯</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_杰夫·贝佐斯</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_杰夫·贝佐斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%89%A7%E8%A1%8C%E5%AE%98</t>
@@ -89,9 +89,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
   </si>
   <si>
@@ -101,13 +98,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>時代 (雜誌)</t>
+    <t>时代 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E4%BA%BA%E7%89%A9</t>
   </si>
   <si>
-    <t>時代年度風雲人物</t>
+    <t>时代年度风云人物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%A5%8E%E5%9F%BA</t>
@@ -143,13 +140,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E5%A0%B4</t>
   </si>
   <si>
-    <t>牧場</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AC%B0%E5%85%92%E5%BA%8A</t>
   </si>
   <si>
-    <t>嬰兒床</t>
+    <t>婴儿床</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -161,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>休士頓</t>
+    <t>休士顿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Exxon</t>
@@ -191,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94</t>
   </si>
   <si>
-    <t>佛羅里達</t>
+    <t>佛罗里达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>邁阿密</t>
+    <t>迈阿密</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Valedictorian</t>
@@ -221,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -335,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E7%9B%AE%E9%8C%84</t>
   </si>
   <si>
-    <t>聯合目錄</t>
+    <t>联合目录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NNDB</t>
@@ -365,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>亞馬遜公司</t>
+    <t>亚马逊公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E5%AE%B6%E8%8F%AF</t>
   </si>
   <si>
-    <t>謝家華</t>
+    <t>谢家华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Lab126</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E7%B6%B2%E8%B7%AF%E6%9C%8D%E5%8B%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>亞馬遜網路服務系統</t>
+    <t>亚马逊网路服务系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Amazon_S3</t>
@@ -467,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E5%BD%B1%E7%89%87</t>
   </si>
   <si>
-    <t>亞馬遜影片</t>
+    <t>亚马逊影片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Kindle</t>
@@ -527,19 +521,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A3%8E%E4%BA%91%E4%BA%BA%E7%89%A9</t>
   </si>
   <si>
-    <t>时代年度风云人物</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E6%9E%97%E5%BE%B7%E4%BC%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>查爾斯·林德伯格</t>
+    <t>查尔斯·林德伯格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>沃爾特·克萊斯勒</t>
+    <t>沃尔特·克莱斯勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%9B%84%E7%94%98%E5%9C%B0</t>
@@ -575,13 +566,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%B8%AD%E6%AD%A3</t>
   </si>
   <si>
-    <t>蔣中正</t>
+    <t>蒋中正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E7%BE%8E%E9%BD%A1</t>
   </si>
   <si>
-    <t>宋美齡</t>
+    <t>宋美龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -671,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E7%88%BE%C2%B7%E6%88%B4%E9%AB%98%E6%A8%82</t>
   </si>
   <si>
-    <t>夏爾·戴高樂</t>
+    <t>夏尔·戴高乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%AE%B6</t>
@@ -713,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%B4%8D%E6%96%AF%C2%B7%E9%AE%91%E6%9E%97</t>
   </si>
   <si>
-    <t>萊納斯·鮑林</t>
+    <t>莱纳斯·鲍林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E7%8F%80%E5%A1%9E%E5%B0%94</t>
@@ -743,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%B3%B0%E5%8B%92</t>
   </si>
   <si>
-    <t>愛德華·泰勒</t>
+    <t>爱德华·泰勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E6%B1%A4%E6%96%AF</t>
@@ -755,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%8C%83%C2%B7%E8%89%BE%E5%80%AB</t>
   </si>
   <si>
-    <t>詹姆斯·范·艾倫</t>
+    <t>詹姆斯·范·艾伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E4%BC%AF%E6%81%A9%E6%96%AF%C2%B7%E4%BC%8D%E5%BE%B7%E6%B2%83%E5%BE%B7</t>
@@ -797,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AC%B0%E5%85%92%E6%BD%AE</t>
   </si>
   <si>
-    <t>嬰兒潮</t>
+    <t>婴儿潮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%978%E5%8F%B7</t>
@@ -863,7 +854,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%8A%AD%E6%8B%89%C2%B7%E5%96%AC%E4%B8%B9</t>
   </si>
   <si>
-    <t>芭芭拉·喬丹</t>
+    <t>芭芭拉·乔丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%C2%B7%E7%AE%80%C2%B7%E9%87%91</t>
@@ -881,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%AE%89%E7%93%A6%E7%88%BE%C2%B7%E8%96%A9%E9%81%94%E7%89%B9</t>
   </si>
   <si>
-    <t>穆罕默德·安瓦爾·薩達特</t>
+    <t>穆罕默德·安瓦尔·萨达特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%93%E5%B0%8F%E5%B9%B3</t>
@@ -923,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%8B%89%E8%93%89%C2%B7%E8%89%BE%E5%A5%8E%E8%AB%BE</t>
   </si>
   <si>
-    <t>柯拉蓉·艾奎諾</t>
+    <t>柯拉蓉·艾奎诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E5%B0%94%C2%B7%E8%B0%A2%E5%B0%94%E7%9B%96%E8%80%B6%E7%BB%B4%E5%A5%87%C2%B7%E6%88%88%E5%B0%94%E5%B7%B4%E4%B9%94%E5%A4%AB</t>
@@ -947,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%C2%B7%E9%80%8F%E7%B4%8D</t>
   </si>
   <si>
-    <t>泰德·透納</t>
+    <t>泰德·透纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%89%8E%E5%85%8B%C2%B7%E6%8B%89%E5%AE%BE</t>
@@ -977,13 +968,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%89%B9%C2%B7%E9%87%91%E9%87%8C%E5%A5%87</t>
   </si>
   <si>
-    <t>紐特·金里奇</t>
+    <t>纽特·金里奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A4%A7%E4%B8%80</t>
@@ -1001,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E8%BF%AA%C2%B7%E6%9C%B1%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>魯迪·朱利安尼</t>
+    <t>鲁迪·朱利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%8A%E5%AF%86%E8%80%85</t>
@@ -1013,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA%E7%9A%84%E6%AF%94%E5%96%BB</t>
   </si>
   <si>
-    <t>好撒馬利亞人的比喻</t>
+    <t>好撒马利亚人的比喻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%AF%BA</t>
@@ -1067,13 +1058,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>抗議</t>
+    <t>抗议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E5%90%84_(%E6%95%99%E5%AE%97)</t>
   </si>
   <si>
-    <t>方濟各 (教宗)</t>
+    <t>方济各 (教宗)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E8%A5%BF%E9%9D%9E%E4%BC%8A%E6%B3%A2%E6%8B%89%E7%97%85%E6%AF%92%E7%96%AB%E6%83%85</t>
@@ -1085,13 +1076,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%8B%89%C2%B7%E9%BB%98%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>安格拉·默克爾</t>
+    <t>安格拉·默克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納德·川普</t>
+    <t>唐纳德·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Me_Too</t>
@@ -1103,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1121,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1133,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1145,7 +1136,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1824,7 +1815,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -1850,7 +1841,7 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>21</v>
@@ -1876,10 +1867,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1905,10 +1896,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -1934,10 +1925,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -1963,10 +1954,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1992,10 +1983,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -2021,10 +2012,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2050,10 +2041,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -2079,10 +2070,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2108,10 +2099,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -2137,10 +2128,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2166,10 +2157,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2195,10 +2186,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2224,10 +2215,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -2253,10 +2244,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2282,10 +2273,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2311,10 +2302,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>5</v>
@@ -2340,10 +2331,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2369,10 +2360,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2398,10 +2389,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2427,10 +2418,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2456,10 +2447,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2485,10 +2476,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2514,10 +2505,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2543,10 +2534,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2572,10 +2563,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2601,10 +2592,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2630,10 +2621,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2659,10 +2650,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2688,10 +2679,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2717,10 +2708,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -2746,10 +2737,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2775,10 +2766,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2804,10 +2795,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2833,10 +2824,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2862,10 +2853,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2891,10 +2882,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2920,10 +2911,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2949,10 +2940,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2978,10 +2969,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3007,10 +2998,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3036,10 +3027,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3065,10 +3056,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3094,10 +3085,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3123,10 +3114,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3152,10 +3143,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" t="s">
         <v>29</v>
-      </c>
-      <c r="F57" t="s">
-        <v>30</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3181,10 +3172,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3210,10 +3201,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -3239,10 +3230,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3268,10 +3259,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3297,10 +3288,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3326,10 +3317,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3355,10 +3346,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3384,10 +3375,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3413,10 +3404,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3442,10 +3433,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3471,10 +3462,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3529,10 +3520,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3587,10 +3578,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3616,10 +3607,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3645,10 +3636,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3674,10 +3665,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3703,10 +3694,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3732,10 +3723,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3761,10 +3752,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3790,10 +3781,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3819,10 +3810,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3848,10 +3839,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -3877,10 +3868,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3906,10 +3897,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3935,10 +3926,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3964,10 +3955,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3993,10 +3984,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4022,10 +4013,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4051,10 +4042,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4080,10 +4071,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4109,10 +4100,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4138,10 +4129,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4167,10 +4158,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4196,10 +4187,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4225,10 +4216,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4254,10 +4245,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4283,10 +4274,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -4312,10 +4303,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4341,10 +4332,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4370,10 +4361,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4399,10 +4390,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4428,10 +4419,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4457,10 +4448,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4486,10 +4477,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4515,10 +4506,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4544,10 +4535,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4573,10 +4564,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4602,10 +4593,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4631,10 +4622,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4660,10 +4651,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4689,10 +4680,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4718,10 +4709,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4747,10 +4738,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4776,10 +4767,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4805,10 +4796,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4834,10 +4825,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4863,10 +4854,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4892,10 +4883,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4921,10 +4912,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4950,10 +4941,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4979,10 +4970,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5008,10 +4999,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5037,10 +5028,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5066,10 +5057,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5095,10 +5086,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5124,10 +5115,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5153,10 +5144,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5182,10 +5173,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5211,10 +5202,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5240,10 +5231,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5269,10 +5260,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5298,10 +5289,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5327,10 +5318,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5356,10 +5347,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5385,10 +5376,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5414,10 +5405,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5443,10 +5434,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5472,10 +5463,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5501,10 +5492,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5530,10 +5521,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5559,10 +5550,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5588,10 +5579,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5617,10 +5608,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5646,10 +5637,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5675,10 +5666,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5704,10 +5695,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5733,10 +5724,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5762,10 +5753,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5791,10 +5782,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5820,10 +5811,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5849,10 +5840,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5878,10 +5869,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -5907,10 +5898,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5936,10 +5927,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -5965,10 +5956,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5994,10 +5985,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6023,10 +6014,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6052,10 +6043,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6081,10 +6072,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6110,10 +6101,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6139,10 +6130,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6168,10 +6159,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6197,10 +6188,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6226,10 +6217,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6255,10 +6246,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6284,10 +6275,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6313,10 +6304,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6342,10 +6333,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6371,10 +6362,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6400,10 +6391,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6429,10 +6420,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F170" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6458,10 +6449,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6487,10 +6478,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6516,10 +6507,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F173" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6545,10 +6536,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6574,10 +6565,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6603,10 +6594,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6632,10 +6623,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6661,10 +6652,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6690,10 +6681,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6719,10 +6710,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6748,10 +6739,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6777,10 +6768,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6806,10 +6797,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6835,10 +6826,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6864,10 +6855,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6893,10 +6884,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6922,10 +6913,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6951,10 +6942,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6980,10 +6971,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -7009,10 +7000,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7038,10 +7029,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7067,10 +7058,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7096,10 +7087,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7125,10 +7116,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7154,10 +7145,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7183,10 +7174,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7212,10 +7203,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7241,10 +7232,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G198" t="n">
         <v>6</v>
@@ -7270,10 +7261,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F199" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
